--- a/PLC/MAP.xlsx
+++ b/PLC/MAP.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="X" sheetId="1" r:id="rId1"/>
     <sheet name="Y" sheetId="2" r:id="rId2"/>
     <sheet name="D0-D100" sheetId="3" r:id="rId3"/>
     <sheet name="D100-D200" sheetId="4" r:id="rId4"/>
-    <sheet name="D300" sheetId="6" r:id="rId5"/>
+    <sheet name="D200" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="D2000" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="256">
   <si>
     <t>x0</t>
   </si>
@@ -97,18 +97,6 @@
     <t>D100</t>
   </si>
   <si>
-    <t>FlowmeterPulseCnt_F1</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseCnt_F2</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseCnt_F3</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseCnt_F4</t>
-  </si>
-  <si>
     <t>D101</t>
   </si>
   <si>
@@ -121,27 +109,12 @@
     <t>D104</t>
   </si>
   <si>
-    <t>FlowmeterPulseCnt_FMain</t>
-  </si>
-  <si>
     <t>D200</t>
   </si>
   <si>
     <t>D2000</t>
   </si>
   <si>
-    <t>FlowmeterLpPulse_F1</t>
-  </si>
-  <si>
-    <t>FlowmeterLpPulse_F2</t>
-  </si>
-  <si>
-    <t>FlowmeterLpPulse_F3</t>
-  </si>
-  <si>
-    <t>FlowmeterLpPulse_F4</t>
-  </si>
-  <si>
     <t>D2001</t>
   </si>
   <si>
@@ -154,9 +127,6 @@
     <t>D2004</t>
   </si>
   <si>
-    <t>FlowmeterLpPulse_Fmain</t>
-  </si>
-  <si>
     <t>D0</t>
   </si>
   <si>
@@ -250,21 +220,6 @@
     <t>D30</t>
   </si>
   <si>
-    <t>FlowmeterLiters_F1</t>
-  </si>
-  <si>
-    <t>FlowmeterLiters_F2</t>
-  </si>
-  <si>
-    <t>FlowmeterLiters_F3</t>
-  </si>
-  <si>
-    <t>FlowmeterLiters_F4</t>
-  </si>
-  <si>
-    <t>FlowmeterLiters_Fmain</t>
-  </si>
-  <si>
     <t>D105</t>
   </si>
   <si>
@@ -283,21 +238,6 @@
     <t>D114</t>
   </si>
   <si>
-    <t>FlowmeterPulseTime_F1</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseTime_F2</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseTime_F3</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseTime_F4</t>
-  </si>
-  <si>
-    <t>FlowmeterPulseTime_FMain</t>
-  </si>
-  <si>
     <t>Temp_DVar1</t>
   </si>
   <si>
@@ -322,19 +262,532 @@
     <t>Temp_DVar3</t>
   </si>
   <si>
-    <t>FlowMeterLpm_F1</t>
-  </si>
-  <si>
-    <t>FlowMeterLpm_F2</t>
-  </si>
-  <si>
-    <t>FlowMeterLpm_F3</t>
-  </si>
-  <si>
-    <t>FlowMeterLpm_F4</t>
-  </si>
-  <si>
-    <t>FlowMeterLpm_Fmain</t>
+    <t>TotalPulses_F1</t>
+  </si>
+  <si>
+    <t>D110</t>
+  </si>
+  <si>
+    <t>D111</t>
+  </si>
+  <si>
+    <t>D112</t>
+  </si>
+  <si>
+    <t>D113</t>
+  </si>
+  <si>
+    <t>Temp Var 1</t>
+  </si>
+  <si>
+    <t>TotalPulses_F2</t>
+  </si>
+  <si>
+    <t>TotalPulses_F3</t>
+  </si>
+  <si>
+    <t>TotalPulses_F4</t>
+  </si>
+  <si>
+    <t>D115</t>
+  </si>
+  <si>
+    <t>TotalPulses_Fmain</t>
+  </si>
+  <si>
+    <t>D116</t>
+  </si>
+  <si>
+    <t>D117</t>
+  </si>
+  <si>
+    <t>D118</t>
+  </si>
+  <si>
+    <t>D119</t>
+  </si>
+  <si>
+    <t>D120</t>
+  </si>
+  <si>
+    <t>D121</t>
+  </si>
+  <si>
+    <t>D122</t>
+  </si>
+  <si>
+    <t>D123</t>
+  </si>
+  <si>
+    <t>D124</t>
+  </si>
+  <si>
+    <t>D125</t>
+  </si>
+  <si>
+    <t>RemPulseTime_F1</t>
+  </si>
+  <si>
+    <t>RemPulseTime_F2</t>
+  </si>
+  <si>
+    <t>RemPulseTime_F3</t>
+  </si>
+  <si>
+    <t>RemPulseTime_F4</t>
+  </si>
+  <si>
+    <t>RemPulseTime_Fmain</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>D127</t>
+  </si>
+  <si>
+    <t>D128</t>
+  </si>
+  <si>
+    <t>D129</t>
+  </si>
+  <si>
+    <t>D130</t>
+  </si>
+  <si>
+    <t>D131</t>
+  </si>
+  <si>
+    <t>D132</t>
+  </si>
+  <si>
+    <t>PulseTime_01s_F1</t>
+  </si>
+  <si>
+    <t>PulseTime_01s_F2</t>
+  </si>
+  <si>
+    <t>PulseTime_01s_F3</t>
+  </si>
+  <si>
+    <t>PulseTime_01s_F4</t>
+  </si>
+  <si>
+    <t>PulseTime_01s_Fmain</t>
+  </si>
+  <si>
+    <t>CMPulses_F1</t>
+  </si>
+  <si>
+    <t>CMPulses_F2</t>
+  </si>
+  <si>
+    <t>CMPulses_F3</t>
+  </si>
+  <si>
+    <t>CMPulses_F4</t>
+  </si>
+  <si>
+    <t>CMPulses_Fmain</t>
+  </si>
+  <si>
+    <t>Lph_F1</t>
+  </si>
+  <si>
+    <t>Lph_F2</t>
+  </si>
+  <si>
+    <t>Lph_F3</t>
+  </si>
+  <si>
+    <t>Lph_F4</t>
+  </si>
+  <si>
+    <t>Lph_Fmain</t>
+  </si>
+  <si>
+    <t>D2005</t>
+  </si>
+  <si>
+    <t>D2006</t>
+  </si>
+  <si>
+    <t>D2007</t>
+  </si>
+  <si>
+    <t>D2008</t>
+  </si>
+  <si>
+    <t>D2009</t>
+  </si>
+  <si>
+    <t>D2010</t>
+  </si>
+  <si>
+    <t>D2011</t>
+  </si>
+  <si>
+    <t>D2012</t>
+  </si>
+  <si>
+    <t>D2013</t>
+  </si>
+  <si>
+    <t>D2014</t>
+  </si>
+  <si>
+    <t>D2015</t>
+  </si>
+  <si>
+    <t>MaxPulseTime</t>
+  </si>
+  <si>
+    <t>Vol_Qty_F1</t>
+  </si>
+  <si>
+    <t>Vol_Qty_F2</t>
+  </si>
+  <si>
+    <t>Vol_Qty_F3</t>
+  </si>
+  <si>
+    <t>Vol_Qty_F4</t>
+  </si>
+  <si>
+    <t>Liter</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>Vol_CycleTime_F1</t>
+  </si>
+  <si>
+    <t>Vol_CycleTime_F2</t>
+  </si>
+  <si>
+    <t>Vol_CycleTime_F3</t>
+  </si>
+  <si>
+    <t>Vol_CycleTime_F4</t>
+  </si>
+  <si>
+    <t>D2016</t>
+  </si>
+  <si>
+    <t>D2017</t>
+  </si>
+  <si>
+    <t>D133</t>
+  </si>
+  <si>
+    <t>D134</t>
+  </si>
+  <si>
+    <t>D135</t>
+  </si>
+  <si>
+    <t>D136</t>
+  </si>
+  <si>
+    <t>D137</t>
+  </si>
+  <si>
+    <t>D138</t>
+  </si>
+  <si>
+    <t>D139</t>
+  </si>
+  <si>
+    <t>D140</t>
+  </si>
+  <si>
+    <t>D141</t>
+  </si>
+  <si>
+    <t>D142</t>
+  </si>
+  <si>
+    <t>D143</t>
+  </si>
+  <si>
+    <t>D144</t>
+  </si>
+  <si>
+    <t>D145</t>
+  </si>
+  <si>
+    <t>D146</t>
+  </si>
+  <si>
+    <t>Vol_Reqpulses_F1</t>
+  </si>
+  <si>
+    <t>Vol_Reqpulses_F2</t>
+  </si>
+  <si>
+    <t>Vol_Reqpulses_F3</t>
+  </si>
+  <si>
+    <t>Vol_Reqpulses_F4</t>
+  </si>
+  <si>
+    <t>1ccm pulses</t>
+  </si>
+  <si>
+    <t>Vol_CurrentrPulses_F1</t>
+  </si>
+  <si>
+    <t>Vol_CurrentrPulses_F2</t>
+  </si>
+  <si>
+    <t>Vol_CurrentrPulses_F3</t>
+  </si>
+  <si>
+    <t>Vol_CurrentrPulses_F4</t>
+  </si>
+  <si>
+    <t>OperationMode</t>
+  </si>
+  <si>
+    <t>1:volumetric</t>
+  </si>
+  <si>
+    <t>Vol_CycleTimer_F1</t>
+  </si>
+  <si>
+    <t>Vol_CycleTimer_F2</t>
+  </si>
+  <si>
+    <t>Vol_CycleTimer_F3</t>
+  </si>
+  <si>
+    <t>Vol_CycleTimer_F4</t>
+  </si>
+  <si>
+    <t>100ms pulse</t>
+  </si>
+  <si>
+    <t>D147</t>
+  </si>
+  <si>
+    <t>D148</t>
+  </si>
+  <si>
+    <t>D149</t>
+  </si>
+  <si>
+    <t>D150</t>
+  </si>
+  <si>
+    <t>D151</t>
+  </si>
+  <si>
+    <t>D152</t>
+  </si>
+  <si>
+    <t>D153</t>
+  </si>
+  <si>
+    <t>D154</t>
+  </si>
+  <si>
+    <t>D155</t>
+  </si>
+  <si>
+    <t>D156</t>
+  </si>
+  <si>
+    <t>D157</t>
+  </si>
+  <si>
+    <t>D158</t>
+  </si>
+  <si>
+    <t>D159</t>
+  </si>
+  <si>
+    <t>D160</t>
+  </si>
+  <si>
+    <t>D161</t>
+  </si>
+  <si>
+    <t>Vol_LastCyclePulses_F1</t>
+  </si>
+  <si>
+    <t>Vol_LastCyclePulses_F2</t>
+  </si>
+  <si>
+    <t>Vol_LastCyclePulses_F3</t>
+  </si>
+  <si>
+    <t>Vol_LastCyclePulses_F4</t>
+  </si>
+  <si>
+    <t>Vol_RemPulses_F1</t>
+  </si>
+  <si>
+    <t>Vol_RemPulses_F2</t>
+  </si>
+  <si>
+    <t>Vol_RemPulses_F3</t>
+  </si>
+  <si>
+    <t>Vol_RemPulses_F4</t>
+  </si>
+  <si>
+    <t>D162</t>
+  </si>
+  <si>
+    <t>D163</t>
+  </si>
+  <si>
+    <t>D164</t>
+  </si>
+  <si>
+    <t>D165</t>
+  </si>
+  <si>
+    <t>D166</t>
+  </si>
+  <si>
+    <t>D167</t>
+  </si>
+  <si>
+    <t>D168</t>
+  </si>
+  <si>
+    <t>D169</t>
+  </si>
+  <si>
+    <t>D170</t>
+  </si>
+  <si>
+    <t>D171</t>
+  </si>
+  <si>
+    <t>D172</t>
+  </si>
+  <si>
+    <t>D173</t>
+  </si>
+  <si>
+    <t>D174</t>
+  </si>
+  <si>
+    <t>D175</t>
+  </si>
+  <si>
+    <t>D176</t>
+  </si>
+  <si>
+    <t>Vol_RemTime_F1</t>
+  </si>
+  <si>
+    <t>Vol_RemTime_F2</t>
+  </si>
+  <si>
+    <t>Vol_RemTime_F3</t>
+  </si>
+  <si>
+    <t>Vol_RemTime_F4</t>
+  </si>
+  <si>
+    <t>Vol_TotTimeMin_F1</t>
+  </si>
+  <si>
+    <t>Vol_TotTimeMin_F2</t>
+  </si>
+  <si>
+    <t>Vol_TotTimeMin_F3</t>
+  </si>
+  <si>
+    <t>Vol_TotTimeMin_F4</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTime_dsec_F1</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTime_dsec_F2</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTime_dsec_F3</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTime_dsec_F4</t>
+  </si>
+  <si>
+    <t>dSec</t>
+  </si>
+  <si>
+    <t>D177</t>
+  </si>
+  <si>
+    <t>D178</t>
+  </si>
+  <si>
+    <t>D179</t>
+  </si>
+  <si>
+    <t>D180</t>
+  </si>
+  <si>
+    <t>D181</t>
+  </si>
+  <si>
+    <t>D182</t>
+  </si>
+  <si>
+    <t>D183</t>
+  </si>
+  <si>
+    <t>D184</t>
+  </si>
+  <si>
+    <t>D185</t>
+  </si>
+  <si>
+    <t>D186</t>
+  </si>
+  <si>
+    <t>D187</t>
+  </si>
+  <si>
+    <t>Vol_CycleCounter_F1</t>
+  </si>
+  <si>
+    <t>Vol_CycleCounter_F2</t>
+  </si>
+  <si>
+    <t>Vol_CycleCounter_F3</t>
+  </si>
+  <si>
+    <t>Vol_CycleCounter_F4</t>
+  </si>
+  <si>
+    <t>Vol_ReqPulsesPerCycle_F1</t>
+  </si>
+  <si>
+    <t>Vol_ReqPulsesPerCycle_F2</t>
+  </si>
+  <si>
+    <t>Vol_ReqPulsesPerCycle_F3</t>
+  </si>
+  <si>
+    <t>Vol_ReqPulsesPerCycle_F4</t>
+  </si>
+  <si>
+    <t>Vol_CurrentPulsesPerCycle_F1</t>
+  </si>
+  <si>
+    <t>Vol_CurrentPulsesPerCycle_F2</t>
+  </si>
+  <si>
+    <t>Vol_CurrentPulsesPerCycle_F3</t>
+  </si>
+  <si>
+    <t>Vol_CurrentPulsesPerCycle_F4</t>
   </si>
 </sst>
 </file>
@@ -350,12 +803,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -370,11 +829,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,7 +1211,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,330 +1284,910 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>50</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
+      <c r="B1" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B9" t="s">
-        <v>90</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>71</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B38" s="4"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="4"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>215</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>216</v>
+      </c>
+      <c r="B74" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>217</v>
+      </c>
+      <c r="B75" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>219</v>
+      </c>
+      <c r="B77" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>237</v>
+      </c>
+      <c r="B82" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>238</v>
+      </c>
+      <c r="B83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>239</v>
+      </c>
+      <c r="B84" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <f>500/120</f>
+        <v>4.166666666666667</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1157,45 +2208,45 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="B6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1209,55 +2260,199 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/PLC/MAP.xlsx
+++ b/PLC/MAP.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
   <si>
     <t>x0</t>
   </si>
@@ -433,12 +433,6 @@
     <t>D2013</t>
   </si>
   <si>
-    <t>D2014</t>
-  </si>
-  <si>
-    <t>D2015</t>
-  </si>
-  <si>
     <t>MaxPulseTime</t>
   </si>
   <si>
@@ -472,12 +466,6 @@
     <t>Vol_CycleTime_F4</t>
   </si>
   <si>
-    <t>D2016</t>
-  </si>
-  <si>
-    <t>D2017</t>
-  </si>
-  <si>
     <t>D133</t>
   </si>
   <si>
@@ -520,51 +508,15 @@
     <t>D146</t>
   </si>
   <si>
-    <t>Vol_Reqpulses_F1</t>
-  </si>
-  <si>
-    <t>Vol_Reqpulses_F2</t>
-  </si>
-  <si>
-    <t>Vol_Reqpulses_F3</t>
-  </si>
-  <si>
-    <t>Vol_Reqpulses_F4</t>
-  </si>
-  <si>
     <t>1ccm pulses</t>
   </si>
   <si>
-    <t>Vol_CurrentrPulses_F1</t>
-  </si>
-  <si>
-    <t>Vol_CurrentrPulses_F2</t>
-  </si>
-  <si>
-    <t>Vol_CurrentrPulses_F3</t>
-  </si>
-  <si>
-    <t>Vol_CurrentrPulses_F4</t>
-  </si>
-  <si>
     <t>OperationMode</t>
   </si>
   <si>
     <t>1:volumetric</t>
   </si>
   <si>
-    <t>Vol_CycleTimer_F1</t>
-  </si>
-  <si>
-    <t>Vol_CycleTimer_F2</t>
-  </si>
-  <si>
-    <t>Vol_CycleTimer_F3</t>
-  </si>
-  <si>
-    <t>Vol_CycleTimer_F4</t>
-  </si>
-  <si>
     <t>100ms pulse</t>
   </si>
   <si>
@@ -625,18 +577,6 @@
     <t>Vol_LastCyclePulses_F4</t>
   </si>
   <si>
-    <t>Vol_RemPulses_F1</t>
-  </si>
-  <si>
-    <t>Vol_RemPulses_F2</t>
-  </si>
-  <si>
-    <t>Vol_RemPulses_F3</t>
-  </si>
-  <si>
-    <t>Vol_RemPulses_F4</t>
-  </si>
-  <si>
     <t>D162</t>
   </si>
   <si>
@@ -682,18 +622,6 @@
     <t>D176</t>
   </si>
   <si>
-    <t>Vol_RemTime_F1</t>
-  </si>
-  <si>
-    <t>Vol_RemTime_F2</t>
-  </si>
-  <si>
-    <t>Vol_RemTime_F3</t>
-  </si>
-  <si>
-    <t>Vol_RemTime_F4</t>
-  </si>
-  <si>
     <t>Vol_TotTimeMin_F1</t>
   </si>
   <si>
@@ -766,18 +694,6 @@
     <t>Vol_CycleCounter_F4</t>
   </si>
   <si>
-    <t>Vol_ReqPulsesPerCycle_F1</t>
-  </si>
-  <si>
-    <t>Vol_ReqPulsesPerCycle_F2</t>
-  </si>
-  <si>
-    <t>Vol_ReqPulsesPerCycle_F3</t>
-  </si>
-  <si>
-    <t>Vol_ReqPulsesPerCycle_F4</t>
-  </si>
-  <si>
     <t>Vol_CurrentPulsesPerCycle_F1</t>
   </si>
   <si>
@@ -788,6 +704,57 @@
   </si>
   <si>
     <t>Vol_CurrentPulsesPerCycle_F4</t>
+  </si>
+  <si>
+    <t>D188</t>
+  </si>
+  <si>
+    <t>D189</t>
+  </si>
+  <si>
+    <t>D190</t>
+  </si>
+  <si>
+    <t>D191</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTimer_F1</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTimer_F2</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTimer_F3</t>
+  </si>
+  <si>
+    <t>Vol_TotalCycleTimer_F4</t>
+  </si>
+  <si>
+    <t>For calculation of flow Lpm</t>
+  </si>
+  <si>
+    <t>Vol_ReqTotalPulses_F1</t>
+  </si>
+  <si>
+    <t>Vol_ReqTotalPulses_F2</t>
+  </si>
+  <si>
+    <t>Vol_ReqTotalPulses_F3</t>
+  </si>
+  <si>
+    <t>Vol_ReqTotalPulses_F4</t>
+  </si>
+  <si>
+    <t>Vol_CurrentCycleTotalPulses_F1</t>
+  </si>
+  <si>
+    <t>Vol_CurrentCycleTotalPulses_F2</t>
+  </si>
+  <si>
+    <t>Vol_CurrentCycleTotalPulses_F3</t>
+  </si>
+  <si>
+    <t>Vol_CurrentCycleTotalPulses_F4</t>
   </si>
 </sst>
 </file>
@@ -829,23 +796,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,15 +1266,15 @@
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>176</v>
+      <c r="B1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,23 +1434,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1487,7 +1458,7 @@
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1495,7 +1466,7 @@
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1503,7 +1474,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1511,7 +1482,7 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1524,7 +1495,7 @@
       <c r="A7" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1532,13 +1503,13 @@
       <c r="A8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1546,13 +1517,13 @@
       <c r="A10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1560,13 +1531,13 @@
       <c r="A12" t="s">
         <v>82</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1574,13 +1545,13 @@
       <c r="A14" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1588,41 +1559,41 @@
       <c r="A16" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>178</v>
+      <c r="B18" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>179</v>
+      <c r="B19" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>180</v>
+      <c r="B20" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1638,6 +1609,9 @@
       <c r="B22" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1719,418 +1693,433 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>160</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>155</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>159</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="4"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="9" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>197</v>
+        <v>167</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>184</v>
-      </c>
-      <c r="B50" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>198</v>
+        <v>169</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>186</v>
-      </c>
-      <c r="B52" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="B54" s="8"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="B56" s="8"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>191</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>201</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B57" s="6"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>192</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>193</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>202</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B59" s="6"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>194</v>
-      </c>
-      <c r="B60" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="B60" s="6"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>203</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B61" s="6"/>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>196</v>
-      </c>
-      <c r="B62" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="B62" s="6"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>206</v>
-      </c>
-      <c r="B64" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="B64" s="6"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B68" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>215</v>
-      </c>
-      <c r="B73" t="s">
-        <v>248</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>216</v>
-      </c>
-      <c r="B74" t="s">
-        <v>249</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>217</v>
-      </c>
-      <c r="B75" t="s">
-        <v>250</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>218</v>
-      </c>
-      <c r="B76" t="s">
-        <v>251</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B79" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="B80" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>236</v>
-      </c>
-      <c r="B81" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>238</v>
-      </c>
-      <c r="B83" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>239</v>
-      </c>
-      <c r="B84" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I90">
-        <f>500/120</f>
-        <v>4.166666666666667</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>230</v>
+      </c>
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="13">
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="B61:B62"/>
@@ -2144,14 +2133,6 @@
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2174,7 +2155,7 @@
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2182,7 +2163,7 @@
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2210,7 +2191,7 @@
       <c r="A1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2218,13 +2199,13 @@
       <c r="A2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2232,13 +2213,13 @@
       <c r="A4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2246,7 +2227,7 @@
       <c r="A6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2260,7 +2241,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -2280,7 +2261,7 @@
         <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,7 +2301,7 @@
         <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,10 +2309,10 @@
         <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2339,10 +2320,10 @@
         <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,10 +2331,10 @@
         <v>131</v>
       </c>
       <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" t="s">
         <v>142</v>
-      </c>
-      <c r="C9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,10 +2342,10 @@
         <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,10 +2353,10 @@
         <v>133</v>
       </c>
       <c r="B11" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,10 +2364,10 @@
         <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,10 +2375,10 @@
         <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,54 +2386,10 @@
         <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
